--- a/data/rc.xlsx
+++ b/data/rc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="start_rc" sheetId="16" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,10 @@
   </si>
   <si>
     <t>Missing parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -519,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -707,88 +711,115 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>32</v>
       </c>
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -800,10 +831,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -812,44 +843,59 @@
     <col min="2" max="2" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -860,10 +906,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -872,43 +918,58 @@
     <col min="2" max="2" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>39</v>
       </c>
       <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>1</v>
       </c>
     </row>
